--- a/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/COMBINED GRAPHS OF BOTH N=3 AND N=4.xlsx
+++ b/CURRENT WORK/RESULT GRAPHS/OUR WORK GRAPHS/COMBINED GRAPHS OF BOTH N=3 AND N=4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\RESULT GRAPHS\OUR WORK GRAPHS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5A545-0CD8-4AD6-9943-E153540450B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E338E22-AEF8-498A-A7D6-A0912115D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,6 +367,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -12598,7 +12603,7 @@
         <c:axId val="2111475280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="440"/>
+          <c:max val="480"/>
           <c:min val="160"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12706,8 +12711,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.14993935185185184"/>
           <c:y val="7.1580147477979431E-2"/>
-          <c:w val="0.5329018518518519"/>
-          <c:h val="0.10156157407407405"/>
+          <c:w val="0.54172129629629628"/>
+          <c:h val="0.1397791666666667"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -19633,8 +19638,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.15750601851851853"/>
           <c:y val="6.6801097210757818E-2"/>
-          <c:w val="0.5329018518518519"/>
-          <c:h val="0.10156157407407405"/>
+          <c:w val="0.59463796296296301"/>
+          <c:h val="0.1397791666666667"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -24445,8 +24450,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.1555974537037037"/>
           <c:y val="6.9416744650177845E-2"/>
-          <c:w val="0.5329018518518519"/>
-          <c:h val="0.10156157407407405"/>
+          <c:w val="0.54466111111111115"/>
+          <c:h val="0.14271898148148149"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -27859,15 +27864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27882,7 +27887,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9502140" y="3390900"/>
+          <a:off x="9677400" y="3413760"/>
           <a:ext cx="518160" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27939,15 +27944,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27962,7 +27967,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9829800" y="3055620"/>
+          <a:off x="10035540" y="3063240"/>
           <a:ext cx="518160" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28018,16 +28023,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28042,7 +28047,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10256520" y="2796540"/>
+          <a:off x="10363200" y="2735580"/>
           <a:ext cx="518160" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28099,15 +28104,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>52070</xdr:rowOff>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28122,7 +28127,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8016240" y="2962910"/>
+          <a:off x="8023860" y="3153410"/>
           <a:ext cx="876300" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28167,15 +28172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>351790</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>344170</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>252730</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28190,7 +28195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10714990" y="1851660"/>
+          <a:off x="10707370" y="2118360"/>
           <a:ext cx="518160" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28246,16 +28251,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28270,7 +28275,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9776460" y="1021080"/>
+          <a:off x="9730740" y="1356360"/>
           <a:ext cx="998220" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28315,15 +28320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28338,7 +28343,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9486900" y="3261360"/>
+          <a:off x="9471660" y="3345180"/>
           <a:ext cx="190500" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -28368,15 +28373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28391,7 +28396,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9814560" y="2895600"/>
+          <a:off x="9906000" y="2971800"/>
           <a:ext cx="167640" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -28421,15 +28426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28444,7 +28449,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10142220" y="2613660"/>
+          <a:off x="10256520" y="2621280"/>
           <a:ext cx="175260" cy="121920"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -28474,15 +28479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28497,7 +28502,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10759440" y="1630680"/>
+          <a:off x="10736580" y="1912620"/>
           <a:ext cx="167640" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -28527,15 +28532,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28550,7 +28555,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10584180" y="1203960"/>
+          <a:off x="10599420" y="1463040"/>
           <a:ext cx="220980" cy="91440"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -48892,8 +48897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5A51D1-0802-4D15-A331-BA641E83CE39}">
   <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54075,7 +54080,7 @@
   <dimension ref="A1:K354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61261,7 +61266,7 @@
   <dimension ref="A1:R275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
